--- a/src/main/resources/static/出口商业发票模板.xlsx
+++ b/src/main/resources/static/出口商业发票模板.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="17180"/>
+    <workbookView windowWidth="24580" windowHeight="17780"/>
   </bookViews>
   <sheets>
     <sheet name="融港" sheetId="1" r:id="rId1"/>
     <sheet name="充电枪2" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">融港!$A$1:$F$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">融港!$A$1:$F$53</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -23,7 +23,8 @@
     <t>Add:</t>
   </si>
   <si>
-    <t>No.2 KeyanErlu,Yizheng,Yangzhou,Jiangsu Province, China
+    <t>NO.8-1 HUAGANG RD. HANJIANG INDUSTRIAL 
+PARK HANJIANG DISTRICT YANGZHOU
 +86 0514-89388968   
  +86 18512525557              
 felixxu@onitl.com</t>
@@ -609,16 +610,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;US$&quot;#,##0_);\(&quot;US$&quot;#,##0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="176" formatCode="&quot;US$&quot;#,##0_);\(&quot;US$&quot;#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="&quot;US$&quot;#,##0.00_);\(&quot;US$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="\$#,##0.00;\-\$#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="&quot;US$&quot;#,##0.00_);\(&quot;US$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="65">
     <font>
@@ -903,7 +904,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -923,6 +923,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,6 +970,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -944,23 +1002,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -971,24 +1031,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,44 +1047,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1049,17 +1056,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1098,7 +1098,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,13 +1128,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,7 +1146,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,13 +1176,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,73 +1260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,43 +1272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,17 +1563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1592,8 +1581,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1613,11 +1631,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1636,30 +1660,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1668,149 +1668,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="31" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="34" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="34" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="50" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="48" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1893,7 +1893,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1902,7 +1902,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2046,46 +2046,46 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="32" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2927,10 +2927,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2963,12 +2963,8 @@
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
       <c r="D2" s="42"/>
-      <c r="E2" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="120" t="s">
-        <v>3</v>
-      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -2979,7 +2975,7 @@
       <c r="C3" s="41"/>
       <c r="D3" s="42"/>
       <c r="E3" s="43" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="120" t="s">
         <v>3</v>
@@ -2994,57 +2990,59 @@
       <c r="C4" s="41"/>
       <c r="D4" s="42"/>
       <c r="E4" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="121" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="F4" s="120" t="s">
+        <v>3</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" ht="12" customHeight="1" spans="1:14">
+    <row r="5" ht="12" customHeight="1" spans="1:9">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="42"/>
       <c r="E5" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F5" s="121" t="s">
+        <v>6</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-    </row>
-    <row r="6" ht="21.85" customHeight="1" spans="1:9">
-      <c r="A6" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+    </row>
+    <row r="6" ht="12" customHeight="1" spans="1:14">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>8</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-    </row>
-    <row r="7" ht="25.05" customHeight="1" spans="1:9">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+    </row>
+    <row r="7" ht="21.85" customHeight="1" spans="1:9">
+      <c r="A7" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -3054,7 +3052,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
@@ -3066,8 +3064,8 @@
       <c r="A9" s="47"/>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
-      <c r="D9" s="50" t="s">
-        <v>12</v>
+      <c r="D9" s="49" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -3079,8 +3077,8 @@
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
-      <c r="D10" s="49" t="s">
-        <v>13</v>
+      <c r="D10" s="50" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
@@ -3088,129 +3086,133 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" ht="9" customHeight="1" spans="1:9">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="38"/>
+    <row r="11" ht="25.05" customHeight="1" spans="1:9">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" ht="22.05" customHeight="1" spans="1:9">
-      <c r="A12" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
+    <row r="12" ht="9" customHeight="1" spans="1:9">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" ht="54" customHeight="1" spans="1:9">
-      <c r="A13" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
+    <row r="13" ht="22.05" customHeight="1" spans="1:9">
+      <c r="A13" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" ht="54" customHeight="1" spans="1:9">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
+      <c r="A14" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" ht="8" hidden="1" customHeight="1" spans="1:9">
-      <c r="A15" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="62"/>
+    <row r="15" ht="54" customHeight="1" spans="1:9">
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:7">
-      <c r="A16" s="73" t="s">
+    <row r="16" ht="8" hidden="1" customHeight="1" spans="1:9">
+      <c r="A16" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:7">
+      <c r="A17" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B17" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C17" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D17" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E17" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F17" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="57"/>
-    </row>
-    <row r="17" ht="25.05" customHeight="1" spans="1:7">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="73"/>
       <c r="G17" s="57"/>
     </row>
-    <row r="18" ht="79.05" customHeight="1" spans="1:7">
-      <c r="A18" s="75" t="s">
+    <row r="18" ht="25.05" customHeight="1" spans="1:7">
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="57"/>
+    </row>
+    <row r="19" ht="79.05" customHeight="1" spans="1:7">
+      <c r="A19" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B19" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C19" s="76">
         <v>4</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D19" s="76">
         <v>88.16</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E19" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F19" s="78">
         <v>352.64</v>
       </c>
-      <c r="G18" s="57"/>
-    </row>
-    <row r="19" ht="79.05" customHeight="1" spans="1:7">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
       <c r="G19" s="57"/>
     </row>
     <row r="20" ht="79.05" customHeight="1" spans="1:7">
@@ -3249,14 +3251,14 @@
       <c r="F23" s="81"/>
       <c r="G23" s="57"/>
     </row>
-    <row r="24" ht="85.05" customHeight="1" spans="1:7">
+    <row r="24" ht="79.05" customHeight="1" spans="1:7">
       <c r="A24" s="74"/>
       <c r="B24" s="74"/>
       <c r="C24" s="79"/>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
       <c r="F24" s="81"/>
-      <c r="G24" s="82"/>
+      <c r="G24" s="57"/>
     </row>
     <row r="25" ht="85.05" customHeight="1" spans="1:7">
       <c r="A25" s="74"/>
@@ -3267,179 +3269,173 @@
       <c r="F25" s="81"/>
       <c r="G25" s="82"/>
     </row>
-    <row r="26" ht="33" customHeight="1" spans="1:7">
-      <c r="A26" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86">
-        <f>SUM(F18:F25)</f>
-        <v>352.64</v>
-      </c>
+    <row r="26" ht="85.05" customHeight="1" spans="1:7">
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="81"/>
       <c r="G26" s="82"/>
     </row>
     <row r="27" ht="33" customHeight="1" spans="1:7">
       <c r="A27" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="84"/>
       <c r="C27" s="84"/>
       <c r="D27" s="84"/>
       <c r="E27" s="85"/>
       <c r="F27" s="86">
+        <f>SUM(F19:F26)</f>
+        <v>352.64</v>
+      </c>
+      <c r="G27" s="82"/>
+    </row>
+    <row r="28" ht="33" customHeight="1" spans="1:7">
+      <c r="A28" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="86">
         <v>0</v>
       </c>
-      <c r="G27" s="82"/>
-    </row>
-    <row r="28" ht="33" customHeight="1" spans="1:7">
-      <c r="A28" s="87"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="90" t="s">
+      <c r="G28" s="82"/>
+    </row>
+    <row r="29" ht="33" customHeight="1" spans="1:7">
+      <c r="A29" s="87"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="86">
-        <f>F26</f>
+      <c r="F29" s="86">
+        <f>F27</f>
         <v>352.64</v>
       </c>
-      <c r="G28" s="82"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="91"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="57"/>
+      <c r="G29" s="82"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="57"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="93"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="94"/>
-    </row>
-    <row r="31" ht="18" spans="1:7">
-      <c r="A31" s="95"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="97"/>
-    </row>
-    <row r="32" ht="13.9" customHeight="1" spans="1:7">
-      <c r="A32" s="98" t="s">
+      <c r="B31" s="93"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="94"/>
+    </row>
+    <row r="32" ht="18" spans="1:7">
+      <c r="A32" s="95"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
+    </row>
+    <row r="33" ht="13.9" customHeight="1" spans="1:7">
+      <c r="A33" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="98"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="99"/>
-    </row>
-    <row r="33" ht="81.4" customHeight="1" spans="1:17">
-      <c r="A33" s="100" t="s">
+      <c r="B33" s="98"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="99"/>
+    </row>
+    <row r="34" ht="81.4" customHeight="1" spans="1:17">
+      <c r="A34" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1" spans="1:17">
-      <c r="A34" s="104" t="s">
+      <c r="B34" s="101"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+    </row>
+    <row r="35" ht="13.5" customHeight="1" spans="1:17">
+      <c r="A35" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="105"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="105"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A35" s="106" t="s">
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A36" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B36" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="108"/>
-    </row>
-    <row r="36" ht="14.75" spans="1:7">
-      <c r="A36" s="109"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="111"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="112"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="113" t="s">
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="108"/>
+    </row>
+    <row r="37" ht="14.75" spans="1:7">
+      <c r="A37" s="109"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="111"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="112"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="111"/>
-    </row>
-    <row r="38" ht="13.5" customHeight="1" spans="2:14">
-      <c r="B38" s="114"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="115"/>
+      <c r="G38" s="111"/>
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="2:14">
-      <c r="B39" s="116"/>
+      <c r="B39" s="114"/>
       <c r="C39" s="115"/>
       <c r="D39" s="115"/>
       <c r="E39" s="116"/>
@@ -3453,60 +3449,76 @@
       <c r="M39" s="115"/>
       <c r="N39" s="115"/>
     </row>
-    <row r="40" ht="13.5" customHeight="1" spans="1:2">
-      <c r="A40" s="117" t="s">
+    <row r="40" ht="13.5" customHeight="1" spans="2:14">
+      <c r="B40" s="116"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="115"/>
+      <c r="M40" s="115"/>
+      <c r="N40" s="115"/>
+    </row>
+    <row r="41" ht="13.5" customHeight="1" spans="1:2">
+      <c r="A41" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="117"/>
-    </row>
-    <row r="43" ht="16.5" spans="1:1">
-      <c r="A43" s="118" t="s">
+      <c r="B41" s="117"/>
+    </row>
+    <row r="44" ht="16.5" spans="1:1">
+      <c r="A44" s="118" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" ht="16.5" spans="1:4">
-      <c r="A44" s="118" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
     </row>
     <row r="45" ht="16.5" spans="1:4">
       <c r="A45" s="118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="118"/>
       <c r="C45" s="118"/>
       <c r="D45" s="118"/>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="119"/>
+    <row r="46" ht="16.5" spans="1:4">
+      <c r="A46" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="119"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="D7:F7"/>
+  <mergeCells count="23">
+    <mergeCell ref="A7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A1:C5"/>
-    <mergeCell ref="A13:C14"/>
-    <mergeCell ref="D13:F14"/>
-    <mergeCell ref="B35:F36"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A1:C6"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="D14:F15"/>
+    <mergeCell ref="B36:F37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.471527777777778" right="0.30625" top="0.196527777777778" bottom="0.313888888888889" header="0.0777777777777778" footer="0.313888888888889"/>
